--- a/Saved_file/EM002/2026_07/sap_data.xlsx
+++ b/Saved_file/EM002/2026_07/sap_data.xlsx
@@ -492,29 +492,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-07-29</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST3065</t>
+          <t>CUST1132</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15590777</v>
+        <v>9476827</v>
       </c>
       <c r="E2" t="n">
-        <v>2443285</v>
+        <v>1166316</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -524,17 +524,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-23</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST5091</t>
+          <t>CUST1394</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17019461</v>
+        <v>20598300</v>
       </c>
       <c r="E3" t="n">
-        <v>3232970</v>
+        <v>4075903</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -583,12 +583,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -600,29 +600,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-07-11</t>
+          <t>2026-07-04</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST6919</t>
+          <t>CUST5865</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>22477659</v>
+        <v>14812205</v>
       </c>
       <c r="E4" t="n">
-        <v>3250848</v>
+        <v>2439287</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -654,29 +654,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-07-06</t>
+          <t>2026-07-12</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST4600</t>
+          <t>CUST2549</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>24684171</v>
+        <v>13071377</v>
       </c>
       <c r="E5" t="n">
-        <v>4143861</v>
+        <v>2024857</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -708,29 +708,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-07-12</t>
+          <t>2026-07-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST9647</t>
+          <t>CUST1410</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8969968</v>
+        <v>13499124</v>
       </c>
       <c r="E6" t="n">
-        <v>1001785</v>
+        <v>2101581</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -740,12 +740,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -762,25 +762,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-22</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST3449</t>
+          <t>CUST5031</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>23614465</v>
+        <v>9465777</v>
       </c>
       <c r="E7" t="n">
-        <v>3567519</v>
+        <v>1861752</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -799,12 +799,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-22</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST5091</t>
+          <t>CUST5164</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>23494786</v>
+        <v>14232901</v>
       </c>
       <c r="E8" t="n">
-        <v>3853824</v>
+        <v>1836330</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-07-21</t>
+          <t>2026-07-25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST6503</t>
+          <t>CUST5043</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>19078295</v>
+        <v>22860668</v>
       </c>
       <c r="E9" t="n">
-        <v>3564740</v>
+        <v>2463627</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -924,29 +924,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-07-17</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST3213</t>
+          <t>CUST1132</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17840759</v>
+        <v>8191848</v>
       </c>
       <c r="E10" t="n">
-        <v>2420339</v>
+        <v>1329528</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -956,17 +956,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-07-16</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST6089</t>
+          <t>CUST1638</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12439445</v>
+        <v>18826321</v>
       </c>
       <c r="E11" t="n">
-        <v>1810359</v>
+        <v>3673477</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1010,17 +1010,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1037,24 +1037,24 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST7492</t>
+          <t>CUST2740</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8918208</v>
+        <v>23960304</v>
       </c>
       <c r="E12" t="n">
-        <v>1769596</v>
+        <v>3161948</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1086,25 +1086,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-07-03</t>
+          <t>2026-07-26</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST1886</t>
+          <t>CUST9684</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>21909742</v>
+        <v>14457499</v>
       </c>
       <c r="E13" t="n">
-        <v>2354352</v>
+        <v>2560095</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1118,17 +1118,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-07-27</t>
+          <t>2026-07-29</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST1378</t>
+          <t>CUST7926</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>22088186</v>
+        <v>13542956</v>
       </c>
       <c r="E14" t="n">
-        <v>3233050</v>
+        <v>2219961</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-23</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST1310</t>
+          <t>CUST5865</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17364226</v>
+        <v>24766211</v>
       </c>
       <c r="E15" t="n">
-        <v>2147128</v>
+        <v>3530948</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1248,29 +1248,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-07-31</t>
+          <t>2026-07-28</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST1886</t>
+          <t>CUST7226</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18151045</v>
+        <v>15191964</v>
       </c>
       <c r="E16" t="n">
-        <v>1845442</v>
+        <v>1868617</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1280,12 +1280,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1302,29 +1302,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-07-05</t>
+          <t>2026-07-23</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST9586</t>
+          <t>CUST8345</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8687592</v>
+        <v>15070854</v>
       </c>
       <c r="E17" t="n">
-        <v>1543581</v>
+        <v>2522593</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1356,25 +1356,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-07-30</t>
+          <t>2026-07-19</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST2331</t>
+          <t>CUST4633</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9770954</v>
+        <v>11395798</v>
       </c>
       <c r="E18" t="n">
-        <v>1863051</v>
+        <v>2135561</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1410,29 +1410,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-07-11</t>
+          <t>2026-07-22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST4876</t>
+          <t>CUST3228</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8304038</v>
+        <v>21158305</v>
       </c>
       <c r="E19" t="n">
-        <v>1485695</v>
+        <v>3096807</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1464,29 +1464,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-07-16</t>
+          <t>2026-07-22</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST4300</t>
+          <t>CUST7135</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9246782</v>
+        <v>17522628</v>
       </c>
       <c r="E20" t="n">
-        <v>1420205</v>
+        <v>2694567</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1518,25 +1518,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-07-23</t>
+          <t>2026-07-25</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST5565</t>
+          <t>CUST7377</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>13123717</v>
+        <v>9530378</v>
       </c>
       <c r="E21" t="n">
-        <v>1918070</v>
+        <v>1372410</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1550,17 +1550,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1572,25 +1572,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-30</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST8664</t>
+          <t>CUST9045</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>13400999</v>
+        <v>14385433</v>
       </c>
       <c r="E22" t="n">
-        <v>2405159</v>
+        <v>2190994</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1626,25 +1626,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-07-05</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST9922</t>
+          <t>CUST5078</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>20664356</v>
+        <v>15740441</v>
       </c>
       <c r="E23" t="n">
-        <v>3627455</v>
+        <v>3085899</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1680,29 +1680,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-07-16</t>
+          <t>2026-07-08</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST9647</t>
+          <t>CUST7524</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9653636</v>
+        <v>11782258</v>
       </c>
       <c r="E24" t="n">
-        <v>1465719</v>
+        <v>2017925</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1734,29 +1734,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-07-05</t>
+          <t>2026-07-27</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST7755</t>
+          <t>CUST9379</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9038332</v>
+        <v>15363010</v>
       </c>
       <c r="E25" t="n">
-        <v>1677855</v>
+        <v>2100066</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1788,25 +1788,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-07-30</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST7755</t>
+          <t>CUST1394</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>18452996</v>
+        <v>10691669</v>
       </c>
       <c r="E26" t="n">
-        <v>3443502</v>
+        <v>1768793</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1825,12 +1825,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1842,25 +1842,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-25</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST4876</t>
+          <t>CUST8296</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>24912287</v>
+        <v>8030178</v>
       </c>
       <c r="E27" t="n">
-        <v>3590911</v>
+        <v>1186460</v>
       </c>
       <c r="F27" t="n">
         <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1896,25 +1896,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-28</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST9922</t>
+          <t>CUST5078</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8293692</v>
+        <v>13263383</v>
       </c>
       <c r="E28" t="n">
-        <v>1198659</v>
+        <v>1565346</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1928,17 +1928,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1950,29 +1950,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-07-02</t>
+          <t>2026-07-19</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST2331</t>
+          <t>CUST5931</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9297237</v>
+        <v>14971304</v>
       </c>
       <c r="E29" t="n">
-        <v>1117715</v>
+        <v>2893039</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1982,12 +1982,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2004,25 +2004,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-05</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST5296</t>
+          <t>CUST7135</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10647408</v>
+        <v>12099541</v>
       </c>
       <c r="E30" t="n">
-        <v>2123108</v>
+        <v>2406812</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2058,25 +2058,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-07-22</t>
+          <t>2026-07-30</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST6676</t>
+          <t>CUST2081</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21920021</v>
+        <v>10100619</v>
       </c>
       <c r="E31" t="n">
-        <v>3863357</v>
+        <v>1133506</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2090,17 +2090,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2112,29 +2112,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-07-13</t>
+          <t>2026-07-20</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST4556</t>
+          <t>CUST5078</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>23790078</v>
+        <v>18202357</v>
       </c>
       <c r="E32" t="n">
-        <v>3704376</v>
+        <v>2987339</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2144,17 +2144,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-07-02</t>
+          <t>2026-07-04</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST3111</t>
+          <t>CUST4697</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>17581791</v>
+        <v>23044440</v>
       </c>
       <c r="E33" t="n">
-        <v>3051974</v>
+        <v>3129718</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2198,17 +2198,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-07-12</t>
+          <t>2026-07-08</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST8428</t>
+          <t>CUST4697</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>24983743</v>
+        <v>24813900</v>
       </c>
       <c r="E34" t="n">
-        <v>4758345</v>
+        <v>4191439</v>
       </c>
       <c r="F34" t="n">
         <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-07-01</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST6111</t>
+          <t>CUST7135</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14494772</v>
+        <v>12115670</v>
       </c>
       <c r="E35" t="n">
-        <v>2811696</v>
+        <v>1408081</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2328,29 +2328,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-07-23</t>
+          <t>2026-07-04</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST4600</t>
+          <t>CUST2549</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>23958205</v>
+        <v>9459361</v>
       </c>
       <c r="E36" t="n">
-        <v>2975405</v>
+        <v>1560275</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2360,17 +2360,17 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2382,25 +2382,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-07-27</t>
+          <t>2026-07-21</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST2221</t>
+          <t>CUST5164</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>12985032</v>
+        <v>8490467</v>
       </c>
       <c r="E37" t="n">
-        <v>1652180</v>
+        <v>1668231</v>
       </c>
       <c r="F37" t="n">
         <v>3</v>
       </c>
       <c r="G37" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-07-20</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST3065</t>
+          <t>CUST6506</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>21761948</v>
+        <v>8468048</v>
       </c>
       <c r="E38" t="n">
-        <v>3241741</v>
+        <v>1595018</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-07-07</t>
+          <t>2026-07-28</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST4637</t>
+          <t>CUST9379</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>22709884</v>
+        <v>12096452</v>
       </c>
       <c r="E39" t="n">
-        <v>4235141</v>
+        <v>1856686</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2522,17 +2522,17 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2549,24 +2549,24 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST5091</t>
+          <t>CUST1410</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>19717092</v>
+        <v>23478671</v>
       </c>
       <c r="E40" t="n">
-        <v>1987349</v>
+        <v>2971373</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-07-03</t>
+          <t>2026-07-05</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST5839</t>
+          <t>CUST1722</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>11544884</v>
+        <v>10603094</v>
       </c>
       <c r="E41" t="n">
-        <v>1297452</v>
+        <v>1977867</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2630,12 +2630,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2657,20 +2657,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST1378</t>
+          <t>CUST8345</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>12623454</v>
+        <v>8236410</v>
       </c>
       <c r="E42" t="n">
-        <v>1866694</v>
+        <v>1153890</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2689,12 +2689,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2706,29 +2706,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-24</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST5358</t>
+          <t>CUST4697</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>13569217</v>
+        <v>13702851</v>
       </c>
       <c r="E43" t="n">
-        <v>2654477</v>
+        <v>1458979</v>
       </c>
       <c r="F43" t="n">
         <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-07-04</t>
+          <t>2026-07-10</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST3213</t>
+          <t>CUST1132</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>11986493</v>
+        <v>8602779</v>
       </c>
       <c r="E44" t="n">
-        <v>2133175</v>
+        <v>1500661</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2814,25 +2814,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-07-27</t>
+          <t>2026-07-11</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST4600</t>
+          <t>CUST1132</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>19243962</v>
+        <v>20823094</v>
       </c>
       <c r="E45" t="n">
-        <v>3683008</v>
+        <v>2238262</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2846,12 +2846,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -2868,25 +2868,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-07-01</t>
+          <t>2026-07-23</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST4556</t>
+          <t>CUST8747</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>13167772</v>
+        <v>13232195</v>
       </c>
       <c r="E46" t="n">
-        <v>1497847</v>
+        <v>2017426</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2900,17 +2900,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2922,25 +2922,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-07-18</t>
+          <t>2026-07-06</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST2515</t>
+          <t>CUST5865</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>15766971</v>
+        <v>13325706</v>
       </c>
       <c r="E47" t="n">
-        <v>1699508</v>
+        <v>1482549</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2976,25 +2976,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-07-31</t>
+          <t>2026-07-29</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST6193</t>
+          <t>CUST5164</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>18593962</v>
+        <v>8112441</v>
       </c>
       <c r="E48" t="n">
-        <v>3675195</v>
+        <v>968942</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -3008,17 +3008,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3030,29 +3030,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-07-27</t>
+          <t>2026-07-16</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST6503</t>
+          <t>CUST6792</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>18741783</v>
+        <v>24768599</v>
       </c>
       <c r="E49" t="n">
-        <v>2876523</v>
+        <v>3349880</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3062,12 +3062,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3084,25 +3084,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-07-11</t>
+          <t>2026-07-21</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST1886</t>
+          <t>CUST4296</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>15429898</v>
+        <v>12379018</v>
       </c>
       <c r="E50" t="n">
-        <v>1979648</v>
+        <v>2108538</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3121,12 +3121,12 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3138,29 +3138,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-25</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST4637</t>
+          <t>CUST9379</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>8489683</v>
+        <v>19247140</v>
       </c>
       <c r="E51" t="n">
-        <v>1618643</v>
+        <v>3700304</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3170,17 +3170,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3192,25 +3192,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-02</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST2084</t>
+          <t>CUST2549</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14170428</v>
+        <v>8199815</v>
       </c>
       <c r="E52" t="n">
-        <v>1488134</v>
+        <v>1281650</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3224,17 +3224,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-07-28</t>
+          <t>2026-07-12</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST9922</t>
+          <t>CUST1396</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>11659516</v>
+        <v>17768229</v>
       </c>
       <c r="E53" t="n">
-        <v>1966473</v>
+        <v>3324930</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3278,12 +3278,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3300,29 +3300,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-07-19</t>
+          <t>2026-07-29</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST5268</t>
+          <t>CUST2549</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>9209611</v>
+        <v>24608167</v>
       </c>
       <c r="E54" t="n">
-        <v>1638132</v>
+        <v>4178515</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3332,17 +3332,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3354,29 +3354,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-07-31</t>
+          <t>2026-07-29</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST3859</t>
+          <t>CUST5043</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>17072376</v>
+        <v>8023424</v>
       </c>
       <c r="E55" t="n">
-        <v>1715022</v>
+        <v>935189</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3386,12 +3386,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3408,25 +3408,25 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-07-21</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST4537</t>
+          <t>CUST9684</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>13295259</v>
+        <v>11928194</v>
       </c>
       <c r="E56" t="n">
-        <v>1596504</v>
+        <v>1266273</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -3440,17 +3440,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3462,25 +3462,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-07-12</t>
+          <t>2026-07-06</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST5565</t>
+          <t>CUST7926</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>19753967</v>
+        <v>19138480</v>
       </c>
       <c r="E57" t="n">
-        <v>1990086</v>
+        <v>3491955</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3494,17 +3494,17 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3516,29 +3516,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-07-21</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST3065</t>
+          <t>CUST6666</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>23013099</v>
+        <v>9756382</v>
       </c>
       <c r="E58" t="n">
-        <v>4252828</v>
+        <v>1518552</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3548,17 +3548,17 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-07-13</t>
+          <t>2026-07-26</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST2654</t>
+          <t>CUST6666</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>19967100</v>
+        <v>14955090</v>
       </c>
       <c r="E59" t="n">
-        <v>3992937</v>
+        <v>2464444</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3602,17 +3602,17 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3624,29 +3624,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-07-12</t>
+          <t>2026-07-26</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST3213</t>
+          <t>CUST6666</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>22919351</v>
+        <v>9671018</v>
       </c>
       <c r="E60" t="n">
-        <v>4412149</v>
+        <v>1672638</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3656,12 +3656,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3678,29 +3678,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-07-07</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST3065</t>
+          <t>CUST4633</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>16266451</v>
+        <v>22469555</v>
       </c>
       <c r="E61" t="n">
-        <v>1637553</v>
+        <v>4235793</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3715,12 +3715,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3777,16 +3777,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66.5</v>
+        <v>65.8</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>4458838</v>
+        <v>3680995</v>
       </c>
       <c r="E2" t="n">
-        <v>1015313</v>
+        <v>988919</v>
       </c>
     </row>
     <row r="3">
@@ -3796,16 +3796,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.2</v>
+        <v>63.2</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3820048</v>
+        <v>5462975</v>
       </c>
       <c r="E3" t="n">
-        <v>920624</v>
+        <v>1247507</v>
       </c>
     </row>
     <row r="4">
@@ -3815,16 +3815,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.40000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2360359</v>
+        <v>6834829</v>
       </c>
       <c r="E4" t="n">
-        <v>479884</v>
+        <v>901600</v>
       </c>
     </row>
     <row r="5">
@@ -3834,16 +3834,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>3311942</v>
+        <v>7307789</v>
       </c>
       <c r="E5" t="n">
-        <v>627233</v>
+        <v>1857619</v>
       </c>
     </row>
     <row r="6">
@@ -3872,16 +3872,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.09999999999999</v>
+        <v>63</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>7960857</v>
+        <v>7776014</v>
       </c>
       <c r="E7" t="n">
-        <v>1521459</v>
+        <v>2029081</v>
       </c>
     </row>
     <row r="8">
@@ -3891,16 +3891,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61.9</v>
+        <v>63.7</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>5774569</v>
+        <v>8814212</v>
       </c>
       <c r="E8" t="n">
-        <v>1141471</v>
+        <v>1341907</v>
       </c>
     </row>
     <row r="9">
@@ -3910,16 +3910,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80</v>
+        <v>74.7</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>5400185</v>
+        <v>3681031</v>
       </c>
       <c r="E9" t="n">
-        <v>594546</v>
+        <v>720392</v>
       </c>
     </row>
     <row r="10">
@@ -3929,16 +3929,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>69.59999999999999</v>
+        <v>61.2</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>5358205</v>
+        <v>8872084</v>
       </c>
       <c r="E10" t="n">
-        <v>940484</v>
+        <v>1415727</v>
       </c>
     </row>
     <row r="11">
@@ -3948,16 +3948,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>63</v>
+        <v>60.6</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>3528765</v>
+        <v>12779041</v>
       </c>
       <c r="E11" t="n">
-        <v>578144</v>
+        <v>1628208</v>
       </c>
     </row>
     <row r="12">
@@ -3967,16 +3967,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>50.8</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>4791815</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1290565</v>
       </c>
     </row>
     <row r="13">
@@ -4005,16 +4005,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>73.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>3436017</v>
+        <v>13310914</v>
       </c>
       <c r="E14" t="n">
-        <v>570052</v>
+        <v>1941633</v>
       </c>
     </row>
     <row r="15">
@@ -4024,16 +4024,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.3</v>
+        <v>75</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>6718687</v>
+        <v>3504157</v>
       </c>
       <c r="E15" t="n">
-        <v>1914449</v>
+        <v>483848</v>
       </c>
     </row>
     <row r="16">
@@ -4043,16 +4043,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.5</v>
+        <v>62.7</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>4018614</v>
+        <v>9090317</v>
       </c>
       <c r="E16" t="n">
-        <v>524814</v>
+        <v>2075236</v>
       </c>
     </row>
     <row r="17">
@@ -4062,16 +4062,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.3</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>5348097</v>
+        <v>6150405</v>
       </c>
       <c r="E17" t="n">
-        <v>882878</v>
+        <v>1220313</v>
       </c>
     </row>
     <row r="18">
@@ -4081,16 +4081,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>78.8</v>
+        <v>69</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>4510778</v>
+        <v>9958307</v>
       </c>
       <c r="E18" t="n">
-        <v>686719</v>
+        <v>1331803</v>
       </c>
     </row>
     <row r="19">
@@ -4100,16 +4100,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2846260</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>699944</v>
       </c>
     </row>
     <row r="20">
@@ -4138,16 +4138,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>66.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>5886773</v>
+        <v>4039534</v>
       </c>
       <c r="E21" t="n">
-        <v>1051081</v>
+        <v>766891</v>
       </c>
     </row>
     <row r="22">
@@ -4157,16 +4157,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.40000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>4670247</v>
+        <v>7079142</v>
       </c>
       <c r="E22" t="n">
-        <v>655702</v>
+        <v>1862104</v>
       </c>
     </row>
     <row r="23">
@@ -4176,16 +4176,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>65.8</v>
+        <v>60.9</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>8599127</v>
+        <v>15048404</v>
       </c>
       <c r="E23" t="n">
-        <v>2155490</v>
+        <v>4299414</v>
       </c>
     </row>
     <row r="24">
@@ -4195,16 +4195,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>69.3</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>10310808</v>
+        <v>4271786</v>
       </c>
       <c r="E24" t="n">
-        <v>1851643</v>
+        <v>481062</v>
       </c>
     </row>
     <row r="25">
@@ -4214,16 +4214,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>63.2</v>
+        <v>61.3</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>12866614</v>
+        <v>2788828</v>
       </c>
       <c r="E25" t="n">
-        <v>1844689</v>
+        <v>388237</v>
       </c>
     </row>
     <row r="26">
@@ -4233,16 +4233,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>68.7</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>3244516</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>460079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4271,16 +4271,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.3</v>
+        <v>62.1</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>4310163</v>
+        <v>3527140</v>
       </c>
       <c r="E28" t="n">
-        <v>815232</v>
+        <v>877209</v>
       </c>
     </row>
     <row r="29">
@@ -4290,16 +4290,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>70.3</v>
+        <v>67.5</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>6872043</v>
+        <v>7271990</v>
       </c>
       <c r="E29" t="n">
-        <v>1595305</v>
+        <v>1763575</v>
       </c>
     </row>
     <row r="30">
@@ -4309,16 +4309,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>78.2</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C30" t="n">
         <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>11428057</v>
+        <v>10268763</v>
       </c>
       <c r="E30" t="n">
-        <v>2505880</v>
+        <v>2369476</v>
       </c>
     </row>
     <row r="31">
@@ -4328,16 +4328,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.09999999999999</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>8304611</v>
+        <v>14437442</v>
       </c>
       <c r="E31" t="n">
-        <v>1436890</v>
+        <v>2547123</v>
       </c>
     </row>
     <row r="32">
@@ -4347,16 +4347,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64.09999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>4615306</v>
+        <v>5456795</v>
       </c>
       <c r="E32" t="n">
-        <v>978800</v>
+        <v>781348</v>
       </c>
     </row>
   </sheetData>
